--- a/top100_memecoins_ecsi.xlsx
+++ b/top100_memecoins_ecsi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,35 +481,55 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>engagement</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>sentiment_pct</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>score_volume</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>score_perf</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>score_ath</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>score_stab</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>score_social</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>score_follow</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>score_eng</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>score_sent</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>E-CSI</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>faixa_ecsi</t>
         </is>
@@ -517,51 +537,67 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>316</v>
+        <v>8</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AIXBT</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>aixbt by Virtuals</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>168426494</v>
+        <v>26574273887</v>
       </c>
       <c r="E2" t="n">
-        <v>43340969</v>
+        <v>921465944</v>
       </c>
       <c r="F2" t="n">
-        <v>9.5443</v>
+        <v>1.87482</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.01053</v>
+        <v>-17.91395352446984</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10073</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>75.74266</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4380072</v>
+      </c>
       <c r="J2" t="n">
-        <v>12.12299538958056</v>
+        <v>0.01238975067076523</v>
       </c>
       <c r="K2" t="n">
-        <v>7.93924</v>
+        <v>0.4375</v>
       </c>
       <c r="L2" t="n">
-        <v>18.02238444444444</v>
+        <v>16.54826429659552</v>
       </c>
       <c r="M2" t="n">
-        <v>19.59829978951862</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>6.916642666666667</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.83170222222222</v>
+      </c>
       <c r="O2" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="P2" t="inlineStr">
+        <v>16.81052539969527</v>
+      </c>
+      <c r="P2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>13.95375044530485</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="S2" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="T2" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -569,51 +605,67 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>26157479056</v>
+        <v>7181577302</v>
       </c>
       <c r="E3" t="n">
-        <v>725640699</v>
+        <v>107820103</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.64966</v>
+        <v>2.1868</v>
       </c>
       <c r="G3" t="n">
-        <v>-22.91715</v>
+        <v>-14.33102643181565</v>
       </c>
       <c r="H3" t="n">
-        <v>76.11506</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>85.83869</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71735</v>
+      </c>
       <c r="J3" t="n">
-        <v>16.20240544334616</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.446712</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16.91445777777778</v>
+        <v>13.44233247457381</v>
       </c>
       <c r="M3" t="n">
-        <v>15.42119541681384</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>6.95824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>19.07526444444444</v>
+      </c>
       <c r="O3" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="P3" t="inlineStr">
+        <v>17.44844460279884</v>
+      </c>
+      <c r="P3" t="n">
+        <v>14.27865551321322</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -621,51 +673,67 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Official Trump</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1995559623</v>
+        <v>895267114</v>
       </c>
       <c r="E4" t="n">
-        <v>201418547</v>
+        <v>276685699</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.29893</v>
+        <v>7.86709</v>
       </c>
       <c r="G4" t="n">
-        <v>-22.07682</v>
+        <v>-4.853264535430432</v>
       </c>
       <c r="H4" t="n">
-        <v>86.39111</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>81.42726999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
       <c r="J4" t="n">
-        <v>14.34699819571525</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.626809333333333</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>19.19802444444444</v>
+        <v>14.80662237475496</v>
       </c>
       <c r="M4" t="n">
-        <v>15.58909181123413</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>7.715611999999999</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.09494888888889</v>
+      </c>
       <c r="O4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="P4" t="inlineStr">
+        <v>19.13590464867675</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10.09</v>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -673,51 +741,67 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>NEIRO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Neiro</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>843056170</v>
+        <v>181059250</v>
       </c>
       <c r="E5" t="n">
-        <v>159978195</v>
+        <v>67208076</v>
       </c>
       <c r="F5" t="n">
-        <v>0.70816</v>
+        <v>10.5684</v>
       </c>
       <c r="G5" t="n">
-        <v>-19.02398</v>
+        <v>3.313196778064323</v>
       </c>
       <c r="H5" t="n">
-        <v>82.54289</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>85.73688</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
       <c r="J5" t="n">
-        <v>14.01353597475904</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.761087999999999</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>18.34286444444444</v>
+        <v>12.75807154269419</v>
       </c>
       <c r="M5" t="n">
-        <v>16.19904365008555</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>8.075786666666666</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19.05264</v>
+      </c>
       <c r="O5" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="P5" t="inlineStr">
+        <v>19.41010470106373</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -725,51 +809,67 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ANIME</t>
+          <t>PNUT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Animecoin</t>
+          <t>Peanut the Squirrel</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>134647633</v>
+        <v>243929951</v>
       </c>
       <c r="E6" t="n">
-        <v>57824289</v>
+        <v>100620506</v>
       </c>
       <c r="F6" t="n">
-        <v>1.39324</v>
+        <v>9.24525</v>
       </c>
       <c r="G6" t="n">
-        <v>14.97798</v>
+        <v>-15.47939179463523</v>
       </c>
       <c r="H6" t="n">
-        <v>86.94772</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>89.99748</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
       <c r="J6" t="n">
-        <v>12.54036767148849</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.852431999999999</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>19.32171555555556</v>
+        <v>13.34228832324528</v>
       </c>
       <c r="M6" t="n">
-        <v>17.0074270373554</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>7.899366666666666</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19.99944</v>
+      </c>
       <c r="O6" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="P6" t="inlineStr">
+        <v>17.24398486968746</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -777,51 +877,67 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22</v>
+        <v>327</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>AIXBT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>aixbt by Virtuals</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>7049423796</v>
+        <v>169730785</v>
       </c>
       <c r="E7" t="n">
-        <v>97023718</v>
+        <v>73214088</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.63758</v>
+        <v>9.628819999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>-19.84737</v>
+        <v>9.80962977680495</v>
       </c>
       <c r="H7" t="n">
-        <v>86.11469</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>80.84535</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
       <c r="J7" t="n">
-        <v>13.28959304334107</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.581656000000001</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>19.13659777777778</v>
+        <v>12.88198218968333</v>
       </c>
       <c r="M7" t="n">
-        <v>16.03453183662927</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>7.950509333333333</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17.96563333333333</v>
+      </c>
       <c r="O7" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="P7" t="inlineStr">
+        <v>18.25345281996101</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -829,51 +945,67 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>787</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>HOUSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Housecoin</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4640873380</v>
+        <v>41164110</v>
       </c>
       <c r="E8" t="n">
-        <v>614048190</v>
+        <v>23799414</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08399</v>
+        <v>34.3361</v>
       </c>
       <c r="G8" t="n">
-        <v>-17.46814</v>
+        <v>7.6635987356474</v>
       </c>
       <c r="H8" t="n">
-        <v>60.4736</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>64.77719999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
       <c r="J8" t="n">
-        <v>15.96067485184857</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.811198666666667</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>13.43857777777778</v>
+        <v>11.25522087930609</v>
       </c>
       <c r="M8" t="n">
-        <v>16.5098976316105</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>11.24481333333333</v>
+      </c>
+      <c r="N8" t="n">
+        <v>14.39493333333333</v>
+      </c>
       <c r="O8" t="n">
-        <v>10.19</v>
-      </c>
-      <c r="P8" t="inlineStr">
+        <v>18.63554108919135</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -881,51 +1013,67 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEIRO</t>
+          <t>GOAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Neiro</t>
+          <t>Goatseus Maximus</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>166913328</v>
+        <v>109868729</v>
       </c>
       <c r="E9" t="n">
-        <v>44223974</v>
+        <v>19700663</v>
       </c>
       <c r="F9" t="n">
-        <v>1.17944</v>
+        <v>9.12557</v>
       </c>
       <c r="G9" t="n">
-        <v>-20.24687</v>
+        <v>-12.20498442669098</v>
       </c>
       <c r="H9" t="n">
-        <v>86.86017</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>91.82695</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
       <c r="J9" t="n">
-        <v>12.15219255343103</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.823925333333333</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>19.30226</v>
+        <v>10.98160280673092</v>
       </c>
       <c r="M9" t="n">
-        <v>15.95471246855851</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>7.883409333333333</v>
+      </c>
+      <c r="N9" t="n">
+        <v>20</v>
+      </c>
       <c r="O9" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="P9" t="inlineStr">
+        <v>17.82697394113075</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -933,51 +1081,67 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>81</v>
+        <v>466</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FARTCOIN</t>
+          <t>PEOPLE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fartcoin</t>
+          <t>ConstitutionDAO</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1218783310</v>
+        <v>100403097</v>
       </c>
       <c r="E10" t="n">
-        <v>189086394</v>
+        <v>27152577</v>
       </c>
       <c r="F10" t="n">
-        <v>5.24029</v>
+        <v>7.23211</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.75985</v>
+        <v>-13.08976917062834</v>
       </c>
       <c r="H10" t="n">
-        <v>50.84374</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>89.27494</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
       <c r="J10" t="n">
-        <v>14.25553426549066</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.365372</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11.29860888888889</v>
+        <v>11.4460368465106</v>
       </c>
       <c r="M10" t="n">
-        <v>19.24878885847095</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>7.630948</v>
+      </c>
+      <c r="N10" t="n">
+        <v>19.83887555555555</v>
+      </c>
       <c r="O10" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="P10" t="inlineStr">
+        <v>17.66944319485128</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -985,51 +1149,67 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PNUT</t>
+          <t>AI16Z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Peanut the Squirrel</t>
+          <t>ai16z</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>229076458</v>
+        <v>212296217</v>
       </c>
       <c r="E11" t="n">
-        <v>58981499</v>
+        <v>60444064</v>
       </c>
       <c r="F11" t="n">
-        <v>2.37226</v>
+        <v>12.14429</v>
       </c>
       <c r="G11" t="n">
-        <v>-32.02425</v>
+        <v>-27.90273989742017</v>
       </c>
       <c r="H11" t="n">
-        <v>90.66421</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>92.10549</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
       <c r="J11" t="n">
-        <v>12.56905268613781</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6.982968</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>12.60451218916564</v>
+      </c>
+      <c r="M11" t="n">
+        <v>8.285905333333334</v>
+      </c>
+      <c r="N11" t="n">
         <v>20</v>
       </c>
-      <c r="M11" t="n">
-        <v>13.60161352205229</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="P11" t="inlineStr">
+        <v>15.03208043605969</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1037,51 +1217,67 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>655</v>
+        <v>35</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BAN</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Comedian</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>56980230</v>
+        <v>4787908941</v>
       </c>
       <c r="E12" t="n">
-        <v>8699887</v>
+        <v>728725630</v>
       </c>
       <c r="F12" t="n">
-        <v>2.93771</v>
+        <v>2.87485</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.14434</v>
+        <v>-8.10004061902479</v>
       </c>
       <c r="H12" t="n">
-        <v>84.94566</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>59.34577</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
       <c r="J12" t="n">
-        <v>9.798378705818704</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>7.058361333333334</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>18.87681333333333</v>
+        <v>16.20854681453064</v>
       </c>
       <c r="M12" t="n">
-        <v>18.97217029301341</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>7.04998</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13.18794888888889</v>
+      </c>
       <c r="O12" t="n">
-        <v>9.890000000000001</v>
-      </c>
-      <c r="P12" t="inlineStr">
+        <v>18.55783516572561</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1089,51 +1285,67 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PENGU</t>
+          <t>NOT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>Notcoin</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>621211537</v>
+        <v>223957247</v>
       </c>
       <c r="E13" t="n">
-        <v>50382264</v>
+        <v>34657757</v>
       </c>
       <c r="F13" t="n">
-        <v>3.00724</v>
+        <v>5.2365</v>
       </c>
       <c r="G13" t="n">
-        <v>-27.756</v>
+        <v>-16.62632257154816</v>
       </c>
       <c r="H13" t="n">
-        <v>85.69354</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>92.29875</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
       <c r="J13" t="n">
-        <v>12.34092559750703</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.067632000000001</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>19.04300888888889</v>
+        <v>11.79933484125157</v>
       </c>
       <c r="M13" t="n">
-        <v>14.45440205213497</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>7.364866666666666</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20</v>
+      </c>
       <c r="O13" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="P13" t="inlineStr">
+        <v>17.03978055620217</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1141,51 +1353,67 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>88</v>
+        <v>413</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>BOME</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>BOOK OF MEME</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1161502318</v>
+        <v>117509537</v>
       </c>
       <c r="E14" t="n">
-        <v>143869807</v>
+        <v>31159124</v>
       </c>
       <c r="F14" t="n">
-        <v>1.85717</v>
+        <v>7.47329</v>
       </c>
       <c r="G14" t="n">
-        <v>-27.48036</v>
+        <v>-17.73187911146649</v>
       </c>
       <c r="H14" t="n">
-        <v>74.29268999999999</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>93.66803</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
       <c r="J14" t="n">
-        <v>13.8598988700104</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>6.914289333333334</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>16.50948666666667</v>
+        <v>11.64528413174396</v>
       </c>
       <c r="M14" t="n">
-        <v>14.50947441913128</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>7.663105333333333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>20</v>
+      </c>
       <c r="O14" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="P14" t="inlineStr">
+        <v>16.8429426835096</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1193,51 +1421,67 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>472</v>
+        <v>87</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PEOPLE</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ConstitutionDAO</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>93778681</v>
+        <v>1212987720</v>
       </c>
       <c r="E15" t="n">
-        <v>18825510</v>
+        <v>193215061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.582</v>
+        <v>6.98832</v>
       </c>
       <c r="G15" t="n">
-        <v>-24.56095</v>
+        <v>-16.24010707214134</v>
       </c>
       <c r="H15" t="n">
-        <v>89.97232</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>73.06732</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
       <c r="J15" t="n">
-        <v>10.91582250153428</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>6.744266666666667</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>19.99384888888889</v>
+        <v>14.28680325465856</v>
       </c>
       <c r="M15" t="n">
-        <v>15.09276718844158</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>7.598442666666667</v>
+      </c>
+      <c r="N15" t="n">
+        <v>16.23718222222222</v>
+      </c>
       <c r="O15" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="P15" t="inlineStr">
+        <v>17.10854396590509</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1245,51 +1489,67 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AI16Z</t>
+          <t>MOG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ai16z</t>
+          <t>Mog Coin</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>200017573</v>
+        <v>391276535</v>
       </c>
       <c r="E16" t="n">
-        <v>35354375</v>
+        <v>21896868</v>
       </c>
       <c r="F16" t="n">
-        <v>7.39326</v>
+        <v>12.57615</v>
       </c>
       <c r="G16" t="n">
-        <v>-40.00486</v>
+        <v>1.458604309513055</v>
       </c>
       <c r="H16" t="n">
-        <v>92.6741</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>75.04886999999999</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
       <c r="J16" t="n">
-        <v>11.82814388041396</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.652434666666666</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>20</v>
+        <v>11.13460666779416</v>
       </c>
       <c r="M16" t="n">
-        <v>12.0071022654335</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>8.343486666666667</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.67752666666667</v>
+      </c>
       <c r="O16" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="P16" t="inlineStr">
+        <v>19.74030403781431</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1297,51 +1557,67 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>116</v>
+        <v>340</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>MOODENG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>Moo Deng</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>753629865</v>
+        <v>160927303</v>
       </c>
       <c r="E17" t="n">
-        <v>47018041</v>
+        <v>53011795</v>
       </c>
       <c r="F17" t="n">
-        <v>0.34962</v>
+        <v>5.58463</v>
       </c>
       <c r="G17" t="n">
-        <v>-22.27225</v>
+        <v>-6.745725716054811</v>
       </c>
       <c r="H17" t="n">
-        <v>77.41433000000001</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>76.01257</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
       <c r="J17" t="n">
-        <v>12.24088176782655</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6.713282666666666</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>17.20318444444445</v>
+        <v>12.41457503285164</v>
       </c>
       <c r="M17" t="n">
-        <v>15.55004525528402</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>7.411283999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.89168222222222</v>
+      </c>
       <c r="O17" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P17" t="inlineStr">
+        <v>18.79896300933292</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1349,51 +1625,67 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>223</v>
+        <v>843</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POPCAT</t>
+          <t>MUBARAK</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Popcat</t>
+          <t>Mubarak</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>316187424</v>
+        <v>36311299</v>
       </c>
       <c r="E18" t="n">
-        <v>31695219</v>
+        <v>32231714</v>
       </c>
       <c r="F18" t="n">
-        <v>5.77295</v>
+        <v>9.8109</v>
       </c>
       <c r="G18" t="n">
-        <v>-31.33237</v>
+        <v>-13.97683845939734</v>
       </c>
       <c r="H18" t="n">
-        <v>84.38976</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>82.76300999999999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
       <c r="J18" t="n">
-        <v>11.66997918967301</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>7.436393333333333</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>18.75328</v>
+        <v>11.69427800264888</v>
       </c>
       <c r="M18" t="n">
-        <v>13.73984987844978</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>7.974786666666667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>18.39178</v>
+      </c>
       <c r="O18" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="P18" t="inlineStr">
+        <v>17.51150569873272</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>9.32</v>
+      </c>
+      <c r="T18" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1401,51 +1693,67 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOME</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BOOK OF MEME</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>110814241</v>
+        <v>784078712</v>
       </c>
       <c r="E19" t="n">
-        <v>25038843</v>
+        <v>63962191</v>
       </c>
       <c r="F19" t="n">
-        <v>0.88603</v>
+        <v>5.56354</v>
       </c>
       <c r="G19" t="n">
-        <v>-30.00885</v>
+        <v>-11.07257400520962</v>
       </c>
       <c r="H19" t="n">
-        <v>94.03614</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>76.44541</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
       <c r="J19" t="n">
-        <v>11.32871419011137</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>6.784803999999999</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>20</v>
+        <v>12.68641110639243</v>
       </c>
       <c r="M19" t="n">
-        <v>14.00428674961127</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>7.408472000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16.98786888888889</v>
+      </c>
       <c r="O19" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="P19" t="inlineStr">
+        <v>18.02859299029829</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="T19" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1453,51 +1761,67 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>543</v>
+        <v>216</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BITCOIN</t>
+          <t>POPCAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>HarryPotterObamaSonic10Inu (ETH)</t>
+          <t>Popcat</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>77066742</v>
+        <v>332468866</v>
       </c>
       <c r="E20" t="n">
-        <v>5112077</v>
+        <v>46206871</v>
       </c>
       <c r="F20" t="n">
-        <v>4.4371</v>
+        <v>10.37041</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.43091</v>
+        <v>-21.59400949881948</v>
       </c>
       <c r="H20" t="n">
-        <v>79.37907</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>83.4766</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
       <c r="J20" t="n">
-        <v>9.028657955680629</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>7.25828</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>17.63979333333333</v>
+        <v>12.21568853435806</v>
       </c>
       <c r="M20" t="n">
-        <v>19.31451046781562</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>8.049388</v>
+      </c>
+      <c r="N20" t="n">
+        <v>18.55035555555556</v>
+      </c>
       <c r="O20" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="P20" t="inlineStr">
+        <v>16.15531296756212</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="T20" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1505,51 +1829,67 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>250</v>
+        <v>689</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEW</t>
+          <t>CHILLGUY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>cat in a dogs world</t>
+          <t>Just a chill guy</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>255114796</v>
+        <v>54259353</v>
       </c>
       <c r="E21" t="n">
-        <v>16892009</v>
+        <v>16937542</v>
       </c>
       <c r="F21" t="n">
-        <v>3.33544</v>
+        <v>9.747030000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>-15.76047</v>
+        <v>-22.30697644917885</v>
       </c>
       <c r="H21" t="n">
-        <v>77.77079000000001</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>91.70036</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
       <c r="J21" t="n">
-        <v>10.75893768047809</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7.111391999999999</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>17.28239777777778</v>
+        <v>10.76283461713085</v>
       </c>
       <c r="M21" t="n">
-        <v>16.85108696896569</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>7.966270666666667</v>
+      </c>
+      <c r="N21" t="n">
+        <v>20</v>
+      </c>
       <c r="O21" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="P21" t="inlineStr">
+        <v>16.02837337402563</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="T21" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1557,51 +1897,67 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MOG</t>
+          <t>DOGS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mog Coin</t>
+          <t>Dogs</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>355559562</v>
+        <v>72194594</v>
       </c>
       <c r="E22" t="n">
-        <v>16005958</v>
+        <v>13379413</v>
       </c>
       <c r="F22" t="n">
-        <v>2.13664</v>
+        <v>7.65505</v>
       </c>
       <c r="G22" t="n">
-        <v>-13.60952</v>
+        <v>-17.49316514631357</v>
       </c>
       <c r="H22" t="n">
-        <v>77.47659</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>91.45786</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
       <c r="J22" t="n">
-        <v>10.68093890986926</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.951552</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>17.21702</v>
+        <v>10.42145686628411</v>
       </c>
       <c r="M22" t="n">
-        <v>17.28084283818172</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>7.687340000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20</v>
+      </c>
       <c r="O22" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="P22" t="inlineStr">
+        <v>16.88544430815395</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="T22" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1609,51 +1965,67 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>874</v>
+        <v>528</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOUSE</t>
+          <t>MEME</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Housecoin</t>
+          <t>Memecoin</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>33095099</v>
+        <v>83251245</v>
       </c>
       <c r="E23" t="n">
-        <v>12986655</v>
+        <v>17963523</v>
       </c>
       <c r="F23" t="n">
-        <v>13.13425</v>
+        <v>6.80392</v>
       </c>
       <c r="G23" t="n">
-        <v>-17.44592</v>
+        <v>-19.8314896400339</v>
       </c>
       <c r="H23" t="n">
-        <v>71.75254</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>96.90123</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
       <c r="J23" t="n">
-        <v>10.37832434445042</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>8.417899999999999</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>15.94500888888889</v>
+        <v>10.84797171456689</v>
       </c>
       <c r="M23" t="n">
-        <v>16.51433714690094</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>7.573856</v>
+      </c>
+      <c r="N23" t="n">
+        <v>20</v>
+      </c>
       <c r="O23" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="P23" t="inlineStr">
+        <v>16.46911931491312</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="T23" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1661,51 +2033,67 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>431</v>
+        <v>886</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MELANIA</t>
+          <t>VINE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Melania Meme</t>
+          <t>Vine</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>105275579</v>
+        <v>33246463</v>
       </c>
       <c r="E24" t="n">
-        <v>9565489</v>
+        <v>17871046</v>
       </c>
       <c r="F24" t="n">
-        <v>2.78537</v>
+        <v>7.61397</v>
       </c>
       <c r="G24" t="n">
-        <v>-23.17657</v>
+        <v>-21.13199800377538</v>
       </c>
       <c r="H24" t="n">
-        <v>97.97836</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>92.89366</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
       <c r="J24" t="n">
-        <v>9.935690588729168</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7.038049333333333</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>10.84049990897394</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.681862666666667</v>
+      </c>
+      <c r="N24" t="n">
         <v>20</v>
       </c>
-      <c r="M24" t="n">
-        <v>15.36936377610066</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="P24" t="inlineStr">
+        <v>16.23757141076279</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="T24" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1713,51 +2101,67 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>865</v>
+        <v>657</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MUBARAK</t>
+          <t>BAN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mubarak</t>
+          <t>Comedian</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>34204418</v>
+        <v>58611785</v>
       </c>
       <c r="E25" t="n">
-        <v>23659504</v>
+        <v>9909660</v>
       </c>
       <c r="F25" t="n">
-        <v>4.41813</v>
+        <v>1.90636</v>
       </c>
       <c r="G25" t="n">
-        <v>-28.86901</v>
+        <v>3.028068968036361</v>
       </c>
       <c r="H25" t="n">
-        <v>83.82477</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>84.48933</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
       <c r="J25" t="n">
-        <v>11.2466854526607</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.255750666666666</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>18.62772666666667</v>
+        <v>9.986862513720872</v>
       </c>
       <c r="M25" t="n">
-        <v>14.23202469329532</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+        <v>6.920847999999999</v>
+      </c>
+      <c r="N25" t="n">
+        <v>18.77540666666667</v>
+      </c>
       <c r="O25" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="P25" t="inlineStr">
+        <v>19.46087003919428</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="T25" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1765,7 +2169,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1778,38 +2182,54 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>43933057</v>
+        <v>44928915</v>
       </c>
       <c r="E26" t="n">
-        <v>16275359</v>
+        <v>20274611</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5969</v>
+        <v>2.70325</v>
       </c>
       <c r="G26" t="n">
-        <v>-27.36057</v>
+        <v>-19.23241456090082</v>
       </c>
       <c r="H26" t="n">
-        <v>94.98818</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>94.84316</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
       <c r="J26" t="n">
-        <v>10.70510192321233</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>6.746253333333333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>11.0231751011562</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.027099999999999</v>
+      </c>
+      <c r="N26" t="n">
         <v>20</v>
       </c>
-      <c r="M26" t="n">
-        <v>14.53340824166244</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="P26" t="inlineStr">
+        <v>16.57578112722387</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="T26" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1817,51 +2237,67 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>278</v>
+        <v>561</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NOT</t>
+          <t>PONKE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Notcoin</t>
+          <t>PONKE</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>212859157</v>
+        <v>74890175</v>
       </c>
       <c r="E27" t="n">
-        <v>13516961</v>
+        <v>8600504</v>
       </c>
       <c r="F27" t="n">
-        <v>1.05705</v>
+        <v>11.35758</v>
       </c>
       <c r="G27" t="n">
-        <v>-27.14879</v>
+        <v>-11.84311317951767</v>
       </c>
       <c r="H27" t="n">
-        <v>92.69305</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>83.89206</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
       <c r="J27" t="n">
-        <v>10.43626353580419</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.807606666666666</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>20</v>
+        <v>9.781746340581391</v>
       </c>
       <c r="M27" t="n">
-        <v>14.57572149765749</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>8.181010666666666</v>
+      </c>
+      <c r="N27" t="n">
+        <v>18.64268</v>
+      </c>
       <c r="O27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="P27" t="inlineStr">
+        <v>17.89140299917554</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="T27" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1869,51 +2305,67 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>785</v>
+        <v>482</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LADYS</t>
+          <t>DEGEN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Milady Meme Coin</t>
+          <t>Degen</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>39902353</v>
+        <v>94313218</v>
       </c>
       <c r="E28" t="n">
-        <v>10124084</v>
+        <v>9903740</v>
       </c>
       <c r="F28" t="n">
-        <v>-6.63999</v>
+        <v>7.97821</v>
       </c>
       <c r="G28" t="n">
-        <v>-15.17389</v>
+        <v>-17.60094011783693</v>
       </c>
       <c r="H28" t="n">
-        <v>89.50503999999999</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>93.8672</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
       <c r="J28" t="n">
-        <v>10.01785246620953</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>5.781334666666666</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>19.89000888888889</v>
+        <v>9.98599743473077</v>
       </c>
       <c r="M28" t="n">
-        <v>16.96828457828471</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>7.730427999999999</v>
+      </c>
+      <c r="N28" t="n">
+        <v>20</v>
+      </c>
       <c r="O28" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="P28" t="inlineStr">
+        <v>16.86625560512685</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="T28" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1921,51 +2373,67 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>761</v>
+        <v>409</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TST</t>
+          <t>NPC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Non-Playable Coin</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>42637016</v>
+        <v>119755720</v>
       </c>
       <c r="E29" t="n">
-        <v>11928284</v>
+        <v>5831683</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07741000000000001</v>
+        <v>22.94754</v>
       </c>
       <c r="G29" t="n">
-        <v>-25.19952</v>
+        <v>-11.86239710370014</v>
       </c>
       <c r="H29" t="n">
-        <v>91.20599</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>77.19692000000001</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
       <c r="J29" t="n">
-        <v>10.25525990222216</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>6.656345333333333</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>20</v>
+        <v>9.219313028232147</v>
       </c>
       <c r="M29" t="n">
-        <v>14.96518207237413</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>9.726338666666667</v>
+      </c>
+      <c r="N29" t="n">
+        <v>17.15487111111111</v>
+      </c>
       <c r="O29" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="P29" t="inlineStr">
+        <v>17.88796960931605</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="T29" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -1973,51 +2441,67 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>910</v>
+        <v>250</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VINE</t>
+          <t>MEW</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Vine</t>
+          <t>cat in a dogs world</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31454436</v>
+        <v>262252538</v>
       </c>
       <c r="E30" t="n">
-        <v>15224578</v>
+        <v>17539723</v>
       </c>
       <c r="F30" t="n">
-        <v>2.15765</v>
+        <v>6.18873</v>
       </c>
       <c r="G30" t="n">
-        <v>-31.82952</v>
+        <v>-6.755027945917743</v>
       </c>
       <c r="H30" t="n">
-        <v>93.383</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>77.05728999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
       <c r="J30" t="n">
-        <v>10.60848421183491</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>6.954353333333333</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20</v>
+        <v>10.81340910130467</v>
       </c>
       <c r="M30" t="n">
-        <v>13.64052021928488</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>7.491830666666667</v>
+      </c>
+      <c r="N30" t="n">
+        <v>17.12384222222222</v>
+      </c>
       <c r="O30" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="P30" t="inlineStr">
+        <v>18.79730680173845</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="T30" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2025,51 +2509,67 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>685</v>
+        <v>831</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CHILLGUY</t>
+          <t>SLERF</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Just a chill guy</t>
+          <t>Slerf</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>53807355</v>
+        <v>37402344</v>
       </c>
       <c r="E31" t="n">
-        <v>11252001</v>
+        <v>3372312</v>
       </c>
       <c r="F31" t="n">
-        <v>9.217420000000001</v>
+        <v>7.8136</v>
       </c>
       <c r="G31" t="n">
-        <v>-36.1245</v>
+        <v>-10.5760400614034</v>
       </c>
       <c r="H31" t="n">
-        <v>91.83362</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>94.24122</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
       <c r="J31" t="n">
-        <v>10.17076587363418</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.895656000000001</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>8.426425826416155</v>
+      </c>
+      <c r="M31" t="n">
+        <v>7.70848</v>
+      </c>
+      <c r="N31" t="n">
         <v>20</v>
       </c>
-      <c r="M31" t="n">
-        <v>12.78239108417458</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="P31" t="inlineStr">
+        <v>18.11699795349057</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="T31" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2077,51 +2577,67 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>446</v>
+        <v>786</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GOAT</t>
+          <t>LADYS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Goatseus Maximus</t>
+          <t>Milady Meme Coin</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>103444554</v>
+        <v>41194606</v>
       </c>
       <c r="E32" t="n">
-        <v>13930110</v>
+        <v>7662936</v>
       </c>
       <c r="F32" t="n">
-        <v>2.81345</v>
+        <v>-1.12928</v>
       </c>
       <c r="G32" t="n">
-        <v>-32.77091</v>
+        <v>-9.643605159050727</v>
       </c>
       <c r="H32" t="n">
-        <v>92.39133</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>89.20219</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
       <c r="J32" t="n">
-        <v>10.47984848623838</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7.041793333333334</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>20</v>
+        <v>9.614650661306699</v>
       </c>
       <c r="M32" t="n">
-        <v>13.45243222201796</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>6.516096</v>
+      </c>
+      <c r="N32" t="n">
+        <v>19.82270888888889</v>
+      </c>
       <c r="O32" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="P32" t="inlineStr">
+        <v>18.28301253164771</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="T32" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2129,51 +2645,67 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>338</v>
+        <v>81</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MOODENG</t>
+          <t>FARTCOIN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Moo Deng</t>
+          <t>Fartcoin</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>156187139</v>
+        <v>1269025643</v>
       </c>
       <c r="E33" t="n">
-        <v>30688172</v>
+        <v>225522222</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1567</v>
+        <v>7.70106</v>
       </c>
       <c r="G33" t="n">
-        <v>-27.75844</v>
+        <v>7.419849733861482</v>
       </c>
       <c r="H33" t="n">
-        <v>76.97888</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>48.75471</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
       <c r="J33" t="n">
-        <v>11.62323673205337</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>6.954226666666666</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>17.10641777777778</v>
+        <v>14.51063113950828</v>
       </c>
       <c r="M33" t="n">
-        <v>14.45391454460533</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>7.693474666666667</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.83438</v>
+      </c>
       <c r="O33" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="P33" t="inlineStr">
+        <v>18.67893917264534</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="T33" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2181,51 +2713,67 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MEME</t>
+          <t>SUNDOG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Memecoin</t>
+          <t>Sundog</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>78071596</v>
+        <v>55843943</v>
       </c>
       <c r="E34" t="n">
-        <v>13558128</v>
+        <v>8705800</v>
       </c>
       <c r="F34" t="n">
-        <v>0.22072</v>
+        <v>2.12918</v>
       </c>
       <c r="G34" t="n">
-        <v>-30.40794</v>
+        <v>-12.24210306841625</v>
       </c>
       <c r="H34" t="n">
-        <v>97.09824999999999</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>85.16716</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
       <c r="J34" t="n">
-        <v>10.44066576564581</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>6.696096000000001</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>20</v>
+        <v>9.799362286020692</v>
       </c>
       <c r="M34" t="n">
-        <v>13.92454929878935</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>6.950557333333332</v>
+      </c>
+      <c r="N34" t="n">
+        <v>18.92603555555555</v>
+      </c>
       <c r="O34" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="P34" t="inlineStr">
+        <v>17.82036518417384</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="T34" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2233,51 +2781,67 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>595</v>
+        <v>164</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DOGS</t>
+          <t>BRETT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dogs</t>
+          <t>Brett</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>68053983</v>
+        <v>480846052</v>
       </c>
       <c r="E35" t="n">
-        <v>10278381</v>
+        <v>23728113</v>
       </c>
       <c r="F35" t="n">
-        <v>1.25198</v>
+        <v>12.03676</v>
       </c>
       <c r="G35" t="n">
-        <v>-29.23592</v>
+        <v>-25.84011710756354</v>
       </c>
       <c r="H35" t="n">
-        <v>91.96169</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>79.21279</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
       <c r="J35" t="n">
-        <v>10.03974904038834</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>6.833597333333334</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>20</v>
+        <v>11.2508773397422</v>
       </c>
       <c r="M35" t="n">
-        <v>14.15871674751599</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>8.271568</v>
+      </c>
+      <c r="N35" t="n">
+        <v>17.60284222222222</v>
+      </c>
       <c r="O35" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="P35" t="inlineStr">
+        <v>15.399318354215</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8.85</v>
+      </c>
+      <c r="T35" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2285,51 +2849,67 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>826</v>
+        <v>537</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SLERF</t>
+          <t>BITCOIN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Slerf</t>
+          <t>HarryPotterObamaSonic10Inu (ETH)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36402646</v>
+        <v>81079701</v>
       </c>
       <c r="E36" t="n">
-        <v>2697454</v>
+        <v>6460788</v>
       </c>
       <c r="F36" t="n">
-        <v>6.36458</v>
+        <v>7.71738</v>
       </c>
       <c r="G36" t="n">
-        <v>-19.275</v>
+        <v>6.773087262864625</v>
       </c>
       <c r="H36" t="n">
-        <v>94.41831999999999</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>78.25039</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
       <c r="J36" t="n">
-        <v>8.103180157810895</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7.515277333333334</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20</v>
+        <v>9.367618302079045</v>
       </c>
       <c r="M36" t="n">
-        <v>16.14889031398262</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>7.695650666666667</v>
+      </c>
+      <c r="N36" t="n">
+        <v>17.38897555555555</v>
+      </c>
       <c r="O36" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="P36" t="inlineStr">
+        <v>18.79409144603139</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="T36" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2337,51 +2917,67 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>673</v>
+        <v>767</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SUNDOG</t>
+          <t>TST</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sundog</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>55023291</v>
+        <v>43446080</v>
       </c>
       <c r="E37" t="n">
-        <v>6920376</v>
+        <v>13269706</v>
       </c>
       <c r="F37" t="n">
-        <v>1.10153</v>
+        <v>1.43173</v>
       </c>
       <c r="G37" t="n">
-        <v>-22.32423</v>
+        <v>-24.22402188231555</v>
       </c>
       <c r="H37" t="n">
-        <v>85.47401000000001</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>91.02741</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
       <c r="J37" t="n">
-        <v>9.467098971064445</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>6.813537333333333</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>18.99422444444444</v>
+        <v>10.40953766953503</v>
       </c>
       <c r="M37" t="n">
-        <v>15.53965974651726</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>6.857564</v>
+      </c>
+      <c r="N37" t="n">
+        <v>20</v>
+      </c>
       <c r="O37" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="P37" t="inlineStr">
+        <v>15.68705465237841</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="T37" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2389,51 +2985,67 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>270</v>
+        <v>757</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GIGA</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gigachad</t>
+          <t>Simon's Cat</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>220116835</v>
+        <v>44592186</v>
       </c>
       <c r="E38" t="n">
-        <v>6546860</v>
+        <v>6016548</v>
       </c>
       <c r="F38" t="n">
-        <v>2.68826</v>
+        <v>5.12835</v>
       </c>
       <c r="G38" t="n">
-        <v>-14.11352</v>
+        <v>-22.21440504722811</v>
       </c>
       <c r="H38" t="n">
-        <v>75.98916</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>90.33049</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
       <c r="J38" t="n">
-        <v>9.386776846463395</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7.025101333333334</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>16.88648</v>
+        <v>9.264491286170285</v>
       </c>
       <c r="M38" t="n">
-        <v>17.1801445615668</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>7.350446666666667</v>
+      </c>
+      <c r="N38" t="n">
+        <v>20</v>
+      </c>
       <c r="O38" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="P38" t="inlineStr">
+        <v>16.04485517045505</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="T38" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2441,51 +3053,67 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BRETT</t>
+          <t>TURBO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Brett</t>
+          <t>Turbo</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>447022235</v>
+        <v>269899043</v>
       </c>
       <c r="E39" t="n">
-        <v>23961225</v>
+        <v>30756168</v>
       </c>
       <c r="F39" t="n">
-        <v>3.58633</v>
+        <v>6.48111</v>
       </c>
       <c r="G39" t="n">
-        <v>-36.68725</v>
+        <v>-21.85999838160906</v>
       </c>
       <c r="H39" t="n">
-        <v>80.78848000000001</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>72.70134</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
       <c r="J39" t="n">
-        <v>11.26503005756909</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>7.144843999999999</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>17.95299555555556</v>
+        <v>11.62644074831112</v>
       </c>
       <c r="M39" t="n">
-        <v>12.66995466519631</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>7.530814666666666</v>
+      </c>
+      <c r="N39" t="n">
+        <v>16.15585333333333</v>
+      </c>
       <c r="O39" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="P39" t="inlineStr">
+        <v>16.10795520343362</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="T39" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2493,51 +3121,67 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>199</v>
+        <v>838</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DOG</t>
+          <t>PEPECOIN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Dog (Bitcoin)</t>
+          <t>PepeCoin</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>366077323</v>
+        <v>36867773</v>
       </c>
       <c r="E40" t="n">
-        <v>8618881</v>
+        <v>1320551</v>
       </c>
       <c r="F40" t="n">
-        <v>3.33488</v>
+        <v>9.397650000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>5.24675</v>
+        <v>-15.25336008752765</v>
       </c>
       <c r="H40" t="n">
-        <v>63.12062</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>94.74644000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
       <c r="J40" t="n">
-        <v>9.784836281646458</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.111317333333334</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>14.02680444444444</v>
+        <v>7.069183928083623</v>
       </c>
       <c r="M40" t="n">
-        <v>18.95170896264012</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>7.919686666666666</v>
+      </c>
+      <c r="N40" t="n">
+        <v>20</v>
+      </c>
       <c r="O40" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="P40" t="inlineStr">
+        <v>17.28422849249793</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="T40" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2545,51 +3189,67 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>497</v>
+        <v>770</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DEGEN</t>
+          <t>WOLF</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Degen</t>
+          <t>LandWolf</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>87942757</v>
+        <v>43193341</v>
       </c>
       <c r="E41" t="n">
-        <v>7541358</v>
+        <v>2684759</v>
       </c>
       <c r="F41" t="n">
-        <v>0.48169</v>
+        <v>12.01367</v>
       </c>
       <c r="G41" t="n">
-        <v>-30.80321</v>
+        <v>-16.9985812110051</v>
       </c>
       <c r="H41" t="n">
-        <v>94.29483</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>83.11556</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
       <c r="J41" t="n">
-        <v>9.591498526374952</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>6.730892000000001</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>20</v>
+        <v>8.096351023063741</v>
       </c>
       <c r="M41" t="n">
-        <v>13.84557507696875</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>8.268489333333333</v>
+      </c>
+      <c r="N41" t="n">
+        <v>18.47012444444444</v>
+      </c>
       <c r="O41" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="P41" t="inlineStr">
+        <v>16.97350208374381</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="T41" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2597,51 +3257,67 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>332</v>
+        <v>589</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LAUNCHCOIN</t>
+          <t>APU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Launch Coin on Believe</t>
+          <t>Apu Apustaja</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>160220072</v>
+        <v>70333363</v>
       </c>
       <c r="E42" t="n">
-        <v>34708815</v>
+        <v>1806363</v>
       </c>
       <c r="F42" t="n">
-        <v>5.67853</v>
+        <v>12.5988</v>
       </c>
       <c r="G42" t="n">
-        <v>-17.03645</v>
+        <v>-17.45873911257396</v>
       </c>
       <c r="H42" t="n">
-        <v>55.78767</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>85.81910000000001</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
       <c r="J42" t="n">
-        <v>11.80146595532397</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>7.423804000000001</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>12.39726</v>
+        <v>7.522683429846703</v>
       </c>
       <c r="M42" t="n">
-        <v>16.59614850270554</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>8.346506666666667</v>
+      </c>
+      <c r="N42" t="n">
+        <v>19.07091111111111</v>
+      </c>
       <c r="O42" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="P42" t="inlineStr">
+        <v>16.89157366201498</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="T42" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2649,51 +3325,67 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AIC</t>
+          <t>BABYDOGE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AI Companions</t>
+          <t>Baby Doge Coin</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>105103773</v>
+        <v>218513580</v>
       </c>
       <c r="E43" t="n">
-        <v>6251929</v>
+        <v>7822322</v>
       </c>
       <c r="F43" t="n">
-        <v>1.56943</v>
+        <v>4.39797</v>
       </c>
       <c r="G43" t="n">
-        <v>-21.10534</v>
+        <v>-19.28905006076086</v>
       </c>
       <c r="H43" t="n">
-        <v>80.71622000000001</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>79.88451000000001</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
       <c r="J43" t="n">
-        <v>9.320046791040241</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>6.875923999999999</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>17.93693777777778</v>
+        <v>9.644452297965609</v>
       </c>
       <c r="M43" t="n">
-        <v>15.78319173537276</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>7.253062666666667</v>
+      </c>
+      <c r="N43" t="n">
+        <v>17.75211333333333</v>
+      </c>
       <c r="O43" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="P43" t="inlineStr">
+        <v>16.5656975078803</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="T43" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2701,51 +3393,67 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>580</v>
+        <v>633</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PONKE</t>
+          <t>BONE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PONKE</t>
+          <t>Bone ShibaSwap</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>69095135</v>
+        <v>62164239</v>
       </c>
       <c r="E44" t="n">
-        <v>6371266</v>
+        <v>4363119</v>
       </c>
       <c r="F44" t="n">
-        <v>2.03551</v>
+        <v>3.30209</v>
       </c>
       <c r="G44" t="n">
-        <v>-28.2288</v>
+        <v>-25.76252847426517</v>
       </c>
       <c r="H44" t="n">
-        <v>85.17898</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>98.39886</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
       <c r="J44" t="n">
-        <v>9.34741912410313</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>6.938068</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>18.92866222222222</v>
+        <v>8.799323527083857</v>
       </c>
       <c r="M44" t="n">
-        <v>14.35993747835811</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>7.106945333333333</v>
+      </c>
+      <c r="N44" t="n">
+        <v>20</v>
+      </c>
       <c r="O44" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="P44" t="inlineStr">
+        <v>15.41313255635857</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="T44" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2753,51 +3461,67 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TURBO</t>
+          <t>LAUNCHCOIN</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Turbo</t>
+          <t>Launch Coin on Believe</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>255173696</v>
+        <v>165249878</v>
       </c>
       <c r="E45" t="n">
-        <v>22910192</v>
+        <v>46636365</v>
       </c>
       <c r="F45" t="n">
-        <v>0.95309</v>
+        <v>4.61131</v>
       </c>
       <c r="G45" t="n">
-        <v>-31.52862</v>
+        <v>-8.729665162459364</v>
       </c>
       <c r="H45" t="n">
-        <v>74.21665</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>53.43699</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
       <c r="J45" t="n">
-        <v>11.20009576277029</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6.793745333333334</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>16.49258888888889</v>
+        <v>12.22908230884087</v>
       </c>
       <c r="M45" t="n">
-        <v>13.70063948800201</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>7.281508</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.87488666666667</v>
+      </c>
       <c r="O45" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="P45" t="inlineStr">
+        <v>18.44573420005826</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="T45" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2805,51 +3529,67 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>631</v>
+        <v>269</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BONE</t>
+          <t>TOSHI</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bone ShibaSwap</t>
+          <t>Toshi</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>60703526</v>
+        <v>229983073</v>
       </c>
       <c r="E46" t="n">
-        <v>3528926</v>
+        <v>10617255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.71047</v>
+        <v>5.74326</v>
       </c>
       <c r="G46" t="n">
-        <v>-28.01124</v>
+        <v>-22.02103619356014</v>
       </c>
       <c r="H46" t="n">
-        <v>98.43584</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>75.73963000000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
       <c r="J46" t="n">
-        <v>8.492141838314646</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>6.761396</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>10.0867074938445</v>
       </c>
       <c r="M46" t="n">
-        <v>14.40340556776355</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>7.432434666666667</v>
+      </c>
+      <c r="N46" t="n">
+        <v>16.83102888888889</v>
+      </c>
       <c r="O46" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="P46" t="inlineStr">
+        <v>16.07928336333953</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="T46" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2857,51 +3597,67 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>606</v>
+        <v>429</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ELON</t>
+          <t>AIC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Dogelon Mars</t>
+          <t>AI Companions</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>66134459</v>
+        <v>109626980</v>
       </c>
       <c r="E47" t="n">
-        <v>2139696</v>
+        <v>6414573</v>
       </c>
       <c r="F47" t="n">
-        <v>0.27838</v>
+        <v>3.13262</v>
       </c>
       <c r="G47" t="n">
-        <v>-21.73545</v>
+        <v>-19.86511363153413</v>
       </c>
       <c r="H47" t="n">
-        <v>95.36105999999999</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>79.85708</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
       <c r="J47" t="n">
-        <v>7.767840249324559</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>6.703783999999999</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>20</v>
+        <v>9.357225839721931</v>
       </c>
       <c r="M47" t="n">
-        <v>15.65729691180563</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>7.084349333333334</v>
+      </c>
+      <c r="N47" t="n">
+        <v>17.74601777777778</v>
+      </c>
       <c r="O47" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="P47" t="inlineStr">
+        <v>16.46313275997959</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2909,51 +3665,67 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>COQ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Simon's Cat</t>
+          <t>Coq Inu</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>42102103</v>
+        <v>41707658</v>
       </c>
       <c r="E48" t="n">
-        <v>5671511</v>
+        <v>2461234</v>
       </c>
       <c r="F48" t="n">
-        <v>0.96754</v>
+        <v>3.44262</v>
       </c>
       <c r="G48" t="n">
-        <v>-34.78707</v>
+        <v>-23.15576948834989</v>
       </c>
       <c r="H48" t="n">
-        <v>90.8937</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>90.66039000000001</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
       <c r="J48" t="n">
-        <v>9.178995929137258</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>6.795672000000001</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
+        <v>7.970509686306722</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7.125682666666666</v>
+      </c>
+      <c r="N48" t="n">
         <v>20</v>
       </c>
-      <c r="M48" t="n">
-        <v>13.04960714785138</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="O48" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="P48" t="inlineStr">
+        <v>15.87725074017188</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="T48" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -2961,51 +3733,67 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>481</v>
+        <v>312</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NEIRO</t>
+          <t>FAI</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Neiro on ETH</t>
+          <t>Freysa AI</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>91690402</v>
+        <v>176773198</v>
       </c>
       <c r="E49" t="n">
-        <v>3703896</v>
+        <v>1605493</v>
       </c>
       <c r="F49" t="n">
-        <v>1.80909</v>
+        <v>6.7866</v>
       </c>
       <c r="G49" t="n">
-        <v>8.403919999999999</v>
+        <v>2.848193807797493</v>
       </c>
       <c r="H49" t="n">
-        <v>68.72994</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>73.01428</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
       <c r="J49" t="n">
-        <v>8.562195946083909</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>6.907878666666666</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>15.27332</v>
+        <v>7.352028054563474</v>
       </c>
       <c r="M49" t="n">
-        <v>18.32091218093306</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>7.571546666666666</v>
+      </c>
+      <c r="N49" t="n">
+        <v>16.22539555555555</v>
+      </c>
       <c r="O49" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="P49" t="inlineStr">
+        <v>19.49289575892298</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3013,51 +3801,67 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>279</v>
+        <v>628</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BABYDOGE</t>
+          <t>PUFF</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Baby Doge Coin</t>
+          <t>Puff The Dragon</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>210200730</v>
+        <v>62518348</v>
       </c>
       <c r="E50" t="n">
-        <v>6907702</v>
+        <v>1624858</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00808</v>
+        <v>-0.27932</v>
       </c>
       <c r="G50" t="n">
-        <v>-27.00656</v>
+        <v>-6.412194078200319</v>
       </c>
       <c r="H50" t="n">
-        <v>80.69773000000001</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>78.7719</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
       <c r="J50" t="n">
-        <v>9.464445312421542</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>6.667744</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>17.93282888888889</v>
+        <v>7.369384710001267</v>
       </c>
       <c r="M50" t="n">
-        <v>14.60413879107603</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>6.629424</v>
+      </c>
+      <c r="N50" t="n">
+        <v>17.50486666666667</v>
+      </c>
       <c r="O50" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="P50" t="inlineStr">
+        <v>18.85834636576966</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="T50" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3065,51 +3869,67 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>706</v>
+        <v>904</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FWOG</t>
+          <t>ARC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fwog</t>
+          <t>AI Rig Complex</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>48740332</v>
+        <v>32175289</v>
       </c>
       <c r="E51" t="n">
-        <v>4568294</v>
+        <v>6492817</v>
       </c>
       <c r="F51" t="n">
-        <v>4.40815</v>
+        <v>8.99689</v>
       </c>
       <c r="G51" t="n">
-        <v>-39.15384</v>
+        <v>-45.62738626470603</v>
       </c>
       <c r="H51" t="n">
-        <v>93.22239</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>94.82834</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
       <c r="J51" t="n">
-        <v>8.865846819552839</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>7.254420000000001</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
+        <v>9.374777208194779</v>
+      </c>
+      <c r="M51" t="n">
+        <v>7.866252</v>
+      </c>
+      <c r="N51" t="n">
         <v>20</v>
       </c>
-      <c r="M51" t="n">
-        <v>12.17713450226849</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="O51" t="n">
-        <v>8.859999999999999</v>
-      </c>
-      <c r="P51" t="inlineStr">
+        <v>11.87631086734775</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="T51" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3117,51 +3937,67 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>272</v>
+        <v>388</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOSHI</t>
+          <t>GOHOME</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Toshi</t>
+          <t>GOHOME</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>217982227</v>
+        <v>132167690</v>
       </c>
       <c r="E52" t="n">
-        <v>7508996</v>
+        <v>8802640</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.07015</v>
+        <v>3.61751</v>
       </c>
       <c r="G52" t="n">
-        <v>-26.30494</v>
+        <v>0.7820837797422382</v>
       </c>
       <c r="H52" t="n">
-        <v>77.20265999999999</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>8.94885</v>
+      </c>
+      <c r="I52" t="n">
+        <v>75578</v>
+      </c>
       <c r="J52" t="n">
-        <v>9.585272909939052</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>6.657313333333334</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>17.15614666666666</v>
+        <v>9.815376469851319</v>
       </c>
       <c r="M52" t="n">
-        <v>14.74432118162874</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>7.149001333333334</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.988633333333333</v>
+      </c>
       <c r="O52" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="P52" t="inlineStr">
+        <v>19.86075455943375</v>
+      </c>
+      <c r="P52" t="n">
+        <v>14.39197697558318</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="T52" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3169,51 +4005,67 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>443</v>
+        <v>797</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NPC</t>
+          <t>KEYCAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Non-Playable Coin</t>
+          <t>Keyboard Cat (Base)</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>103532055</v>
+        <v>40001677</v>
       </c>
       <c r="E53" t="n">
-        <v>3232471</v>
+        <v>3002566</v>
       </c>
       <c r="F53" t="n">
-        <v>6.85898</v>
+        <v>5.61926</v>
       </c>
       <c r="G53" t="n">
-        <v>-28.83552</v>
+        <v>-19.54310291601059</v>
       </c>
       <c r="H53" t="n">
-        <v>80.60845</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>74.80383</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
       <c r="J53" t="n">
-        <v>8.365115457707413</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>7.581197333333334</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>17.91298888888889</v>
+        <v>8.258308541643956</v>
       </c>
       <c r="M53" t="n">
-        <v>14.23871593393785</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>7.415901333333333</v>
+      </c>
+      <c r="N53" t="n">
+        <v>16.62307333333333</v>
+      </c>
       <c r="O53" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="P53" t="inlineStr">
+        <v>16.52046488361078</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="T53" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3221,51 +4073,67 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>787</v>
+        <v>480</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WOLF</t>
+          <t>NEIRO</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LandWolf</t>
+          <t>Neiro on ETH</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>39948253</v>
+        <v>94682780</v>
       </c>
       <c r="E54" t="n">
-        <v>1978189</v>
+        <v>5355309</v>
       </c>
       <c r="F54" t="n">
-        <v>4.13757</v>
+        <v>3.72821</v>
       </c>
       <c r="G54" t="n">
-        <v>-25.94394</v>
+        <v>18.5469023348539</v>
       </c>
       <c r="H54" t="n">
-        <v>84.47308</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>67.71814999999999</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
       <c r="J54" t="n">
-        <v>7.654225941925196</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>7.218342666666667</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>18.77179555555556</v>
+        <v>9.095948448582156</v>
       </c>
       <c r="M54" t="n">
-        <v>14.81644832023586</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>7.163761333333333</v>
+      </c>
+      <c r="N54" t="n">
+        <v>15.04847777777778</v>
+      </c>
       <c r="O54" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="P54" t="inlineStr">
+        <v>16.69783256774974</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="T54" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3273,51 +4141,67 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>784</v>
+        <v>200</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>COQ</t>
+          <t>DOG</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Coq Inu</t>
+          <t>Dog (Bitcoin)</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>40054891</v>
+        <v>377933992</v>
       </c>
       <c r="E55" t="n">
-        <v>1953417</v>
+        <v>10998662</v>
       </c>
       <c r="F55" t="n">
-        <v>1.21327</v>
+        <v>4.8591</v>
       </c>
       <c r="G55" t="n">
-        <v>-31.62336</v>
+        <v>20.95384520210601</v>
       </c>
       <c r="H55" t="n">
-        <v>91.09932000000001</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>61.77718</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
       <c r="J55" t="n">
-        <v>7.635983209777736</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>6.828436</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>20</v>
+        <v>10.13779951981219</v>
       </c>
       <c r="M55" t="n">
-        <v>13.68171060957641</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>7.314546666666666</v>
+      </c>
+      <c r="N55" t="n">
+        <v>13.72826222222222</v>
+      </c>
       <c r="O55" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="P55" t="inlineStr">
+        <v>16.26929047462669</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="T55" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3325,51 +4209,67 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>863</v>
+        <v>696</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PEPECOIN</t>
+          <t>SKI</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PepeCoin</t>
+          <t>Ski Mask Dog</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>34320302</v>
+        <v>51835829</v>
       </c>
       <c r="E56" t="n">
-        <v>1124648</v>
+        <v>1230548</v>
       </c>
       <c r="F56" t="n">
-        <v>0.26561</v>
+        <v>6.77126</v>
       </c>
       <c r="G56" t="n">
-        <v>-26.93845</v>
+        <v>-38.41777730385875</v>
       </c>
       <c r="H56" t="n">
-        <v>95.11628</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>85.51787</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
       <c r="J56" t="n">
-        <v>6.836722050888184</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>6.702081333333334</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>20</v>
+        <v>6.966995196330279</v>
       </c>
       <c r="M56" t="n">
-        <v>14.61774704429079</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>7.569501333333333</v>
+      </c>
+      <c r="N56" t="n">
+        <v>19.00397111111111</v>
+      </c>
       <c r="O56" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="P56" t="inlineStr">
+        <v>13.15993955530553</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="T56" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3377,51 +4277,67 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>322</v>
+        <v>858</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FAI</t>
+          <t>FARTCOIN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Freysa AI</t>
+          <t>Based Fartcoin</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>166427145</v>
+        <v>35379035</v>
       </c>
       <c r="E57" t="n">
-        <v>1226638</v>
+        <v>293850</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.57917</v>
+        <v>15.51993</v>
       </c>
       <c r="G57" t="n">
-        <v>-11.16428</v>
+        <v>-1.05429013038283</v>
       </c>
       <c r="H57" t="n">
-        <v>74.63267</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>59.89261</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
       <c r="J57" t="n">
-        <v>6.962388048540143</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>6.589444</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>16.58503777777778</v>
+        <v>4.893752316834726</v>
       </c>
       <c r="M57" t="n">
-        <v>17.76939731022516</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>8.735990666666666</v>
+      </c>
+      <c r="N57" t="n">
+        <v>13.30946888888889</v>
+      </c>
       <c r="O57" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="P57" t="inlineStr">
+        <v>19.81228981153631</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="T57" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3429,51 +4345,67 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>754</v>
+        <v>823</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WZRD</t>
+          <t>LOFI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bitcoin Wizards</t>
+          <t>LOFI</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>43435689</v>
+        <v>37860641</v>
       </c>
       <c r="E58" t="n">
-        <v>142860</v>
+        <v>1625736</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.01868</v>
+        <v>6.01992</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01584</v>
+        <v>-45.2476957491094</v>
       </c>
       <c r="H58" t="n">
-        <v>87.25456</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>84.96263999999999</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
       <c r="J58" t="n">
-        <v>3.849702152628411</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>6.664175999999999</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>19.38990222222222</v>
+        <v>7.370166742586459</v>
       </c>
       <c r="M58" t="n">
-        <v>19.99683519702068</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>7.469322666666667</v>
+      </c>
+      <c r="N58" t="n">
+        <v>18.88058666666667</v>
+      </c>
       <c r="O58" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="P58" t="inlineStr">
+        <v>11.94391254186465</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="T58" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3481,51 +4413,67 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>897</v>
+        <v>169</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$FARTBOY</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Fartboy</t>
+          <t>Binance-Peg Dogecoin</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>31925848</v>
+        <v>455389882</v>
       </c>
       <c r="E59" t="n">
-        <v>226989</v>
+        <v>1686099</v>
       </c>
       <c r="F59" t="n">
-        <v>4.13464</v>
+        <v>1.91261</v>
       </c>
       <c r="G59" t="n">
-        <v>-10.04984</v>
+        <v>-17.65086848694731</v>
       </c>
       <c r="H59" t="n">
-        <v>84.19880999999999</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>63.06417</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
       <c r="J59" t="n">
-        <v>4.520016038587166</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>7.217951999999999</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>18.71084666666667</v>
+        <v>7.422943569391522</v>
       </c>
       <c r="M59" t="n">
-        <v>17.99206038044488</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>6.921681333333334</v>
+      </c>
+      <c r="N59" t="n">
+        <v>14.01426</v>
+      </c>
       <c r="O59" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="P59" t="inlineStr">
+        <v>16.85736615116602</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T59" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3533,51 +4481,67 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>627</v>
+        <v>819</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PUFF</t>
+          <t>DOGINME</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Puff The Dragon</t>
+          <t>doginme</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>61482750</v>
+        <v>38213735</v>
       </c>
       <c r="E60" t="n">
-        <v>380268</v>
+        <v>2685629</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.50347</v>
+        <v>6.26778</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.31187</v>
+        <v>-33.84310438480064</v>
       </c>
       <c r="H60" t="n">
-        <v>79.06186</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>68.22126</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
       <c r="J60" t="n">
-        <v>5.266965935190445</v>
+        <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>6.599537333333333</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>17.56930222222222</v>
+        <v>8.096820059568564</v>
       </c>
       <c r="M60" t="n">
-        <v>18.5391017701738</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>7.502370666666667</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15.16028</v>
+      </c>
       <c r="O60" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="P60" t="inlineStr">
+        <v>13.97443329953163</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="T60" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3585,51 +4549,67 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>622</v>
+        <v>439</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>APU</t>
+          <t>ALCH</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Apu Apustaja</t>
+          <t>Alchemist AI</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>62615087</v>
+        <v>106246422</v>
       </c>
       <c r="E61" t="n">
-        <v>1086694</v>
+        <v>17713731</v>
       </c>
       <c r="F61" t="n">
-        <v>2.08608</v>
+        <v>-0.93902</v>
       </c>
       <c r="G61" t="n">
-        <v>-33.03837</v>
+        <v>-21.91649862243384</v>
       </c>
       <c r="H61" t="n">
-        <v>87.38111000000001</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>46.87683</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
       <c r="J61" t="n">
-        <v>6.787024230608406</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>6.944810666666666</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>19.41802444444444</v>
+        <v>10.8277001507116</v>
       </c>
       <c r="M61" t="n">
-        <v>13.39899420403496</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>6.541464</v>
+      </c>
+      <c r="N61" t="n">
+        <v>10.41707333333333</v>
+      </c>
       <c r="O61" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="P61" t="inlineStr">
+        <v>16.0978956661698</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="T61" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3637,51 +4617,67 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>791</v>
+        <v>322</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KEYCAT</t>
+          <t>SNEK</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Keyboard Cat (Base)</t>
+          <t>Snek</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>39125332</v>
+        <v>171721990</v>
       </c>
       <c r="E62" t="n">
-        <v>2379786</v>
+        <v>1164987</v>
       </c>
       <c r="F62" t="n">
-        <v>2.20595</v>
+        <v>2.53736</v>
       </c>
       <c r="G62" t="n">
-        <v>-29.44011</v>
+        <v>-32.37107462707444</v>
       </c>
       <c r="H62" t="n">
-        <v>75.31073000000001</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>74.24028</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
       <c r="J62" t="n">
-        <v>7.921793017642536</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>6.960793333333334</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>16.73571777777778</v>
+        <v>6.887736930434931</v>
       </c>
       <c r="M62" t="n">
-        <v>14.11791995961519</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>7.004981333333333</v>
+      </c>
+      <c r="N62" t="n">
+        <v>16.49784</v>
+      </c>
       <c r="O62" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="P62" t="inlineStr">
+        <v>14.23651958421173</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="T62" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3689,51 +4685,67 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>656</v>
+        <v>176</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ANDY</t>
+          <t>KET</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ANDY ETH</t>
+          <t>Ket</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>56799730</v>
+        <v>419167452</v>
       </c>
       <c r="E63" t="n">
-        <v>1065044</v>
+        <v>13632593</v>
       </c>
       <c r="F63" t="n">
-        <v>3.40406</v>
+        <v>4.6766</v>
       </c>
       <c r="G63" t="n">
-        <v>-30.88924</v>
+        <v>-9.323132719566821</v>
       </c>
       <c r="H63" t="n">
-        <v>84.02764000000001</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>31.9957</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
       <c r="J63" t="n">
-        <v>6.757891833623134</v>
+        <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>7.120541333333334</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>18.67280888888889</v>
+        <v>10.44859489692186</v>
       </c>
       <c r="M63" t="n">
-        <v>13.82838644058545</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>7.290213333333333</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.110155555555555</v>
+      </c>
       <c r="O63" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="P63" t="inlineStr">
+        <v>18.34007077423137</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="T63" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3741,51 +4753,67 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FARTCOIN</t>
+          <t>BINK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Based Fartcoin</t>
+          <t>Big Dog Fink</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>33189559</v>
+        <v>35557307</v>
       </c>
       <c r="E64" t="n">
-        <v>270661</v>
+        <v>2311.09</v>
       </c>
       <c r="F64" t="n">
-        <v>14.68873</v>
+        <v>7.69208</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.59768</v>
+        <v>-13.78902912807101</v>
       </c>
       <c r="H64" t="n">
-        <v>61.89931</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>95.34332000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" t="n">
-        <v>4.774752273513914</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>8.625163999999998</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>13.75540222222222</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>19.08139195947038</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>7.692277333333333</v>
+      </c>
+      <c r="N64" t="n">
+        <v>20</v>
+      </c>
       <c r="O64" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="P64" t="inlineStr">
+        <v>17.54494405119619</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="T64" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3793,51 +4821,67 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>426</v>
+        <v>727</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ALCH</t>
+          <t>CORGIAI</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Alchemist AI</t>
+          <t>CorgiAI</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>107425554</v>
+        <v>47835906</v>
       </c>
       <c r="E65" t="n">
-        <v>14694602</v>
+        <v>63372</v>
       </c>
       <c r="F65" t="n">
-        <v>0.34351</v>
+        <v>-0.41094</v>
       </c>
       <c r="G65" t="n">
-        <v>-21.55708</v>
+        <v>-29.05819967992825</v>
       </c>
       <c r="H65" t="n">
-        <v>46.33746</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>96.70527</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
       <c r="J65" t="n">
-        <v>10.5571927593309</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>6.712468</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>10.29721333333333</v>
+        <v>2.672991378453731</v>
       </c>
       <c r="M65" t="n">
-        <v>15.69293491101159</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>6.611874666666667</v>
+      </c>
+      <c r="N65" t="n">
+        <v>20</v>
+      </c>
       <c r="O65" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="P65" t="inlineStr">
+        <v>14.82635758303625</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="T65" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3845,51 +4889,67 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>847</v>
+        <v>651</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KEKIUS</t>
+          <t>BANANAS31</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kekius Maximus</t>
+          <t>Banana For Scale</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>35318833</v>
+        <v>59754339</v>
       </c>
       <c r="E66" t="n">
-        <v>4644666</v>
+        <v>7832817</v>
       </c>
       <c r="F66" t="n">
-        <v>-10.12352</v>
+        <v>1.01967</v>
       </c>
       <c r="G66" t="n">
-        <v>-44.4617</v>
+        <v>6.556356277178516</v>
       </c>
       <c r="H66" t="n">
-        <v>91.52323</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>27.38855</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
       <c r="J66" t="n">
-        <v>8.889848297143152</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>5.316864</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>20</v>
+        <v>9.646393267113345</v>
       </c>
       <c r="M66" t="n">
-        <v>11.11663379886905</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>6.802622666666666</v>
+      </c>
+      <c r="N66" t="n">
+        <v>6.086344444444443</v>
+      </c>
       <c r="O66" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="P66" t="inlineStr">
+        <v>18.83267912981659</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="T66" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3897,51 +4957,67 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>356</v>
+        <v>224</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PURR</t>
+          <t>CHEEMS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Purr</t>
+          <t>Cheems Token</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>147192852</v>
+        <v>319053051</v>
       </c>
       <c r="E67" t="n">
-        <v>13678675</v>
+        <v>5217531</v>
       </c>
       <c r="F67" t="n">
-        <v>0.90319</v>
+        <v>2.91973</v>
       </c>
       <c r="G67" t="n">
-        <v>46.13795</v>
+        <v>-6.330059655068849</v>
       </c>
       <c r="H67" t="n">
-        <v>64.81994</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>27.7224</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
       <c r="J67" t="n">
-        <v>10.45348010335197</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>6.787092</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>14.40443111111111</v>
+        <v>9.058216793697049</v>
       </c>
       <c r="M67" t="n">
-        <v>10.78172211994886</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>7.055964</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.160533333333333</v>
+      </c>
       <c r="O67" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="P67" t="inlineStr">
+        <v>18.87296991919301</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="T67" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -3949,51 +5025,67 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>815</v>
+        <v>498</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DOGINME</t>
+          <t>PTGC</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>doginme</t>
+          <t>The Grays Currency</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>37475984</v>
+        <v>88641759</v>
       </c>
       <c r="E68" t="n">
-        <v>2450526</v>
+        <v>81878</v>
       </c>
       <c r="F68" t="n">
-        <v>3.91184</v>
+        <v>3.68532</v>
       </c>
       <c r="G68" t="n">
-        <v>-39.72776</v>
+        <v>-25.19833784967713</v>
       </c>
       <c r="H68" t="n">
-        <v>69.37826</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>77.21625</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
       <c r="J68" t="n">
-        <v>7.964197715744051</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>7.188245333333333</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>15.41739111111111</v>
+        <v>3.043890752628542</v>
       </c>
       <c r="M68" t="n">
-        <v>12.06246633775492</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>7.158042666666667</v>
+      </c>
+      <c r="N68" t="n">
+        <v>17.15916666666667</v>
+      </c>
       <c r="O68" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="P68" t="inlineStr">
+        <v>15.51358339566636</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="T68" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4001,51 +5093,67 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BANANAS31</t>
+          <t>MEOW</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Banana For Scale</t>
+          <t>MEOW</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>59197222</v>
+        <v>63062922</v>
       </c>
       <c r="E69" t="n">
-        <v>6117198</v>
+        <v>293803</v>
       </c>
       <c r="F69" t="n">
-        <v>0.80789</v>
+        <v>-2.51254</v>
       </c>
       <c r="G69" t="n">
-        <v>3.25234</v>
+        <v>-61.68621752854124</v>
       </c>
       <c r="H69" t="n">
-        <v>28.13039</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>93.50534</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
       <c r="J69" t="n">
-        <v>9.288508459550325</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>6.774385333333334</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>6.251197777777778</v>
+        <v>4.893520753415575</v>
       </c>
       <c r="M69" t="n">
-        <v>19.35018842665516</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>6.331661333333333</v>
+      </c>
+      <c r="N69" t="n">
+        <v>20</v>
+      </c>
       <c r="O69" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="P69" t="inlineStr">
+        <v>9.017129930173923</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T69" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4053,51 +5161,67 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>168</v>
+        <v>648</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>OSAK</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Binance-Peg Dogecoin</t>
+          <t>Osaka Protocol</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>446895375</v>
+        <v>59797516</v>
       </c>
       <c r="E70" t="n">
-        <v>1534635</v>
+        <v>71938</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.63186</v>
+        <v>-4.31584</v>
       </c>
       <c r="G70" t="n">
-        <v>-23.67602</v>
+        <v>-40.80219963308645</v>
       </c>
       <c r="H70" t="n">
-        <v>63.61987</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>81.95941999999999</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
       <c r="J70" t="n">
-        <v>7.286683662709764</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>6.449085333333333</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>14.13774888888889</v>
+        <v>2.856527865058505</v>
       </c>
       <c r="M70" t="n">
-        <v>15.26957458114961</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>6.091221333333333</v>
+      </c>
+      <c r="N70" t="n">
+        <v>18.21320444444444</v>
+      </c>
       <c r="O70" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="P70" t="inlineStr">
+        <v>12.73540711219726</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="T70" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4105,51 +5229,67 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>182</v>
+        <v>738</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KET</t>
+          <t>LAMBO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ket</t>
+          <t>LAMBO</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>399062700</v>
+        <v>46352405</v>
       </c>
       <c r="E71" t="n">
-        <v>13424856</v>
+        <v>3771226</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9907899999999999</v>
+        <v>6.13318</v>
       </c>
       <c r="G71" t="n">
-        <v>-19.90175</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>35.36619</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>5.16196</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
       <c r="J71" t="n">
-        <v>10.42636545330797</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>6.534561333333334</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>7.859153333333334</v>
+        <v>8.588275197837433</v>
       </c>
       <c r="M71" t="n">
-        <v>16.02366681225959</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>7.484424000000001</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.147102222222222</v>
+      </c>
       <c r="O71" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="P71" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="T71" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4157,51 +5297,67 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>321</v>
+        <v>631</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SNEK</t>
+          <t>MIU</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Snek</t>
+          <t>MIU</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>166834564</v>
+        <v>62094404</v>
       </c>
       <c r="E72" t="n">
-        <v>1034953</v>
+        <v>368626</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.2558</v>
+        <v>7.65947</v>
       </c>
       <c r="G72" t="n">
-        <v>-34.14903</v>
+        <v>-40.43363120090017</v>
       </c>
       <c r="H72" t="n">
-        <v>75.01712999999999</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>54.26709</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
       <c r="J72" t="n">
-        <v>6.716402092533231</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>6.63256</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>16.67047333333333</v>
+        <v>5.221953212351252</v>
       </c>
       <c r="M72" t="n">
-        <v>13.17708637088985</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>7.687929333333333</v>
+      </c>
+      <c r="N72" t="n">
+        <v>12.05935333333333</v>
+      </c>
       <c r="O72" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="P72" t="inlineStr">
+        <v>12.80102856484458</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="T72" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4209,51 +5365,67 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>829</v>
+        <v>326</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LOFI</t>
+          <t>PURR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>LOFI</t>
+          <t>Purr</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>36169602</v>
+        <v>170399774</v>
       </c>
       <c r="E73" t="n">
-        <v>1425202</v>
+        <v>5859246</v>
       </c>
       <c r="F73" t="n">
-        <v>1.67038</v>
+        <v>21.50968</v>
       </c>
       <c r="G73" t="n">
-        <v>-52.41281</v>
+        <v>92.61570811090391</v>
       </c>
       <c r="H73" t="n">
-        <v>85.61713</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>58.3687</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
       <c r="J73" t="n">
-        <v>7.179588077097096</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>6.889384000000001</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>19.02602888888889</v>
+        <v>9.226139107370882</v>
       </c>
       <c r="M73" t="n">
-        <v>9.528016588202924</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>9.534624000000001</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.97082222222222</v>
+      </c>
       <c r="O73" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="P73" t="inlineStr">
+        <v>3.510315118018727</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="T73" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4261,51 +5433,67 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>724</v>
+        <v>358</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SKI</t>
+          <t>TDCCP</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Ski Mask Dog</t>
+          <t>TDCCP</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>47321931</v>
+        <v>148933538</v>
       </c>
       <c r="E74" t="n">
-        <v>1277216</v>
+        <v>476367</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.66988</v>
+        <v>4.38634</v>
       </c>
       <c r="G74" t="n">
-        <v>-49.19271</v>
+        <v>-36.36103858975107</v>
       </c>
       <c r="H74" t="n">
-        <v>86.80741</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>47.06246</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
       <c r="J74" t="n">
-        <v>7.020881168052089</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>6.444016</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>19.29053555555556</v>
+        <v>5.593138894659496</v>
       </c>
       <c r="M74" t="n">
-        <v>10.17138666861509</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>7.251512</v>
+      </c>
+      <c r="N74" t="n">
+        <v>10.45832444444444</v>
+      </c>
       <c r="O74" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="P74" t="inlineStr">
+        <v>13.52612984820482</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="T74" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4313,51 +5501,67 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>429</v>
+        <v>805</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SIREN</t>
+          <t>JOE</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Siren</t>
+          <t>Joe Coin</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>105386264</v>
+        <v>39299917</v>
       </c>
       <c r="E75" t="n">
-        <v>10268033</v>
+        <v>3568320</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.6298</v>
+        <v>29.45455</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.415889999999999</v>
+        <v>104.0563470834054</v>
       </c>
       <c r="H75" t="n">
-        <v>24.6882</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>45.7189</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
       <c r="J75" t="n">
-        <v>10.03829085254148</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>6.582693333333332</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>5.486266666666666</v>
+        <v>8.508212647117647</v>
       </c>
       <c r="M75" t="n">
-        <v>18.1187224289767</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>10.59394</v>
+      </c>
+      <c r="N75" t="n">
+        <v>10.15975555555555</v>
+      </c>
       <c r="O75" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="P75" t="inlineStr">
+        <v>1.473376294648088</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="T75" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4365,51 +5569,67 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>227</v>
+        <v>630</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CHEEMS</t>
+          <t>VADER</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cheems Token</t>
+          <t>VaderAI by Virtuals</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>312561497</v>
+        <v>61958419</v>
       </c>
       <c r="E76" t="n">
-        <v>4709448</v>
+        <v>2054571</v>
       </c>
       <c r="F76" t="n">
-        <v>3.32702</v>
+        <v>16.08379</v>
       </c>
       <c r="G76" t="n">
-        <v>-11.90774</v>
+        <v>107.5565319997808</v>
       </c>
       <c r="H76" t="n">
-        <v>28.87684</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>60.66743</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
       <c r="J76" t="n">
-        <v>8.909900019797655</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>7.110269333333333</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>6.417075555555556</v>
+        <v>7.709070512705916</v>
       </c>
       <c r="M76" t="n">
-        <v>17.62085536432806</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>8.811171999999999</v>
+      </c>
+      <c r="N76" t="n">
+        <v>13.48165111111111</v>
+      </c>
       <c r="O76" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P76" t="inlineStr">
+        <v>0.8501888518594287</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="T76" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4417,51 +5637,67 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GOHOME</t>
+          <t>DAKU</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GOHOME</t>
+          <t>Daku</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>130680065</v>
+        <v>140111688</v>
       </c>
       <c r="E77" t="n">
-        <v>9849210</v>
+        <v>152409</v>
       </c>
       <c r="F77" t="n">
-        <v>1.94676</v>
+        <v>11.44389</v>
       </c>
       <c r="G77" t="n">
-        <v>0.11793</v>
+        <v>26.5841388033415</v>
       </c>
       <c r="H77" t="n">
-        <v>10.5241</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>5.53509</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
       <c r="J77" t="n">
-        <v>9.978004657868528</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>6.926234666666666</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>2.338688888888889</v>
+        <v>3.943368711860773</v>
       </c>
       <c r="M77" t="n">
-        <v>19.97643780206111</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>8.192518666666667</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.23002</v>
+      </c>
       <c r="O77" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="P77" t="inlineStr">
+        <v>15.26684964497569</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T77" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4469,51 +5705,67 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>480</v>
+        <v>74</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PTGC</t>
+          <t>SPX</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>The Grays Currency</t>
+          <t>SPX6900</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>92715391</v>
+        <v>1551089768</v>
       </c>
       <c r="E78" t="n">
-        <v>68919</v>
+        <v>94840908</v>
       </c>
       <c r="F78" t="n">
-        <v>9.129049999999999</v>
+        <v>18.42424</v>
       </c>
       <c r="G78" t="n">
-        <v>-26.26171</v>
+        <v>149.178534169628</v>
       </c>
       <c r="H78" t="n">
-        <v>76.16432</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>3.90831</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
       <c r="J78" t="n">
-        <v>2.794463224337814</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>7.883873333333334</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>16.92540444444445</v>
+        <v>13.25665234410014</v>
       </c>
       <c r="M78" t="n">
-        <v>14.75295845642648</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>9.123232</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.8685133333333334</v>
+      </c>
       <c r="O78" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="P78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="T78" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4521,51 +5773,67 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>848</v>
+        <v>379</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BINK</t>
+          <t>MGG</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Big Dog Fink</t>
+          <t>MimboGameGroup</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>34904439</v>
+        <v>137659793</v>
       </c>
       <c r="E79" t="n">
-        <v>808.75</v>
+        <v>9990.65</v>
       </c>
       <c r="F79" t="n">
-        <v>6.51354</v>
+        <v>-1.75383</v>
       </c>
       <c r="G79" t="n">
-        <v>-17.3103</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>95.44449</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>9.44121</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>7.535138666666667</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>6.432822666666667</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2.098046666666667</v>
+      </c>
+      <c r="O79" t="n">
         <v>20</v>
       </c>
-      <c r="M79" t="n">
-        <v>16.54143377442974</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="P79" t="inlineStr">
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T79" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4573,51 +5841,67 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>AGENTFUN</t>
+          <t>TIBBIR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AgentFun.AI</t>
+          <t>Ribbita by Virtuals</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>170485034</v>
+        <v>129093073</v>
       </c>
       <c r="E80" t="n">
-        <v>15611.78</v>
+        <v>1757533</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.22063</v>
+        <v>21.40802</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.34713</v>
+        <v>113.1743643602938</v>
       </c>
       <c r="H80" t="n">
-        <v>93.2454</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>0.84119</v>
+      </c>
+      <c r="I80" t="n">
+        <v>8601</v>
+      </c>
       <c r="J80" t="n">
-        <v>0.6448414086932679</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>6.503915999999999</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>20</v>
+        <v>7.483011627400286</v>
       </c>
       <c r="M80" t="n">
-        <v>16.93367154368</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>9.521069333333333</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1869311111111111</v>
+      </c>
       <c r="O80" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="P80" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>9.672744738330735</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T80" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4625,51 +5909,67 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>637</v>
+        <v>878</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VADER</t>
+          <t>AINTI</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>VaderAI by Virtuals</t>
+          <t>AIntivirus</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>59584903</v>
+        <v>33728682</v>
       </c>
       <c r="E81" t="n">
-        <v>1748157</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>18.43013</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>65.16136</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>62.35041</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1.1644</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
       <c r="J81" t="n">
-        <v>7.475268111818018</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>9.124017333333331</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>13.85564666666667</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>6.980879654990114</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+        <v>6.666666666666666</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.2587555555555556</v>
+      </c>
       <c r="O81" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="P81" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="T81" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4677,51 +5977,67 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>611</v>
+        <v>320</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEOW</t>
+          <t>AURA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MEOW</t>
+          <t>aura</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>65852744</v>
+        <v>171937606</v>
       </c>
       <c r="E82" t="n">
-        <v>248335</v>
+        <v>23801011</v>
       </c>
       <c r="F82" t="n">
-        <v>2.18043</v>
+        <v>-7.36086</v>
       </c>
       <c r="G82" t="n">
-        <v>-57.64235</v>
+        <v>14339.63206252488</v>
       </c>
       <c r="H82" t="n">
-        <v>93.31533</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>23.43601</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
       <c r="J82" t="n">
-        <v>4.650126442489719</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>6.957390666666666</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>20</v>
+        <v>11.25531801685445</v>
       </c>
       <c r="M82" t="n">
-        <v>8.483164077312374</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>5.685218666666666</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5.208002222222222</v>
+      </c>
       <c r="O82" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="P82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="T82" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4729,51 +6045,67 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>718</v>
+        <v>849</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CORGIAI</t>
+          <t>ARARA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CorgiAI</t>
+          <t>Araracoin</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>48017319</v>
+        <v>36002635</v>
       </c>
       <c r="E83" t="n">
-        <v>17923.44</v>
+        <v>281817</v>
       </c>
       <c r="F83" t="n">
-        <v>0.30798</v>
+        <v>33.20915</v>
       </c>
       <c r="G83" t="n">
-        <v>-31.83443</v>
+        <v>204.8686838050633</v>
       </c>
       <c r="H83" t="n">
-        <v>96.71084999999999</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>6.85395</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
       <c r="J83" t="n">
-        <v>0.8447378878506691</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>6.707730666666667</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>20</v>
+        <v>4.833223958124349</v>
       </c>
       <c r="M83" t="n">
-        <v>13.63953921028056</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>11.09455333333333</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.5231</v>
+      </c>
       <c r="O83" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="P83" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="T83" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4781,51 +6113,67 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>825</v>
+        <v>342</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>JOE</t>
+          <t>REKT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Joe Coin</t>
+          <t>Rekt</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>36320524</v>
+        <v>160178590</v>
       </c>
       <c r="E84" t="n">
-        <v>2597940</v>
+        <v>1036797</v>
       </c>
       <c r="F84" t="n">
-        <v>21.65317</v>
+        <v>5.01641</v>
       </c>
       <c r="G84" t="n">
-        <v>77.67777</v>
+        <v>106.7336290477088</v>
       </c>
       <c r="H84" t="n">
-        <v>51.45492</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>7.57464</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
       <c r="J84" t="n">
-        <v>8.048763722418443</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>9.553756</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>11.43442666666667</v>
+        <v>6.718979106285246</v>
       </c>
       <c r="M84" t="n">
-        <v>4.480123868470541</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>7.335521333333333</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.683253333333333</v>
+      </c>
       <c r="O84" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="P84" t="inlineStr">
+        <v>0.9967019072028187</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="T84" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
@@ -4833,869 +6181,67 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>798</v>
+        <v>859</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>HOLD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Central African Republic Meme</t>
+          <t>Everybody</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>38422460</v>
+        <v>35381274</v>
       </c>
       <c r="E85" t="n">
-        <v>838890</v>
+        <v>798985</v>
       </c>
       <c r="F85" t="n">
-        <v>9.187049999999999</v>
+        <v>-1.73828</v>
       </c>
       <c r="G85" t="n">
-        <v>104.15841</v>
+        <v>399.1849755314128</v>
       </c>
       <c r="H85" t="n">
-        <v>95.02202</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>17.71112</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
       <c r="J85" t="n">
-        <v>6.41235005804654</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>7.891606666666666</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>20</v>
+        <v>6.341795420081354</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>6.434896</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3.935804444444444</v>
+      </c>
       <c r="O85" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>354</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>TDCCP</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>TDCCP</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>148053034</v>
-      </c>
-      <c r="E86" t="n">
-        <v>426823</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3.08412</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-38.71453</v>
-      </c>
-      <c r="H86" t="n">
-        <v>47.98611</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>5.434159379983496</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.077882666666666</v>
-      </c>
-      <c r="L86" t="n">
-        <v>10.66358</v>
-      </c>
-      <c r="M86" t="n">
-        <v>12.26490783540283</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>650</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>MIU</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>MIU</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>57890592</v>
-      </c>
-      <c r="E87" t="n">
-        <v>299657</v>
-      </c>
-      <c r="F87" t="n">
-        <v>1.1492</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-44.04457</v>
-      </c>
-      <c r="H87" t="n">
-        <v>57.17356</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>4.922081424293951</v>
-      </c>
-      <c r="K87" t="n">
-        <v>6.819893333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.70523555555556</v>
-      </c>
-      <c r="M87" t="n">
-        <v>11.19997560863966</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>641</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>OSAK</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Osaka Protocol</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>58831116</v>
-      </c>
-      <c r="E88" t="n">
-        <v>60280</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-6.3064</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-46.62661</v>
-      </c>
-      <c r="H88" t="n">
-        <v>82.3659</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>2.600577478808648</v>
-      </c>
-      <c r="K88" t="n">
-        <v>5.825813333333334</v>
-      </c>
-      <c r="L88" t="n">
-        <v>18.30353333333333</v>
-      </c>
-      <c r="M88" t="n">
-        <v>10.68408874722932</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>482</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>USELESS</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Useless Coin</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>91537396</v>
-      </c>
-      <c r="E89" t="n">
-        <v>19598776</v>
-      </c>
-      <c r="F89" t="n">
-        <v>44.10921</v>
-      </c>
-      <c r="G89" t="n">
-        <v>299.76575</v>
-      </c>
-      <c r="H89" t="n">
-        <v>4.7176</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>10.97409649754119</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.54789466666667</v>
-      </c>
-      <c r="L89" t="n">
-        <v>1.048355555555555</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>207</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>BUILDon</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>343638178</v>
-      </c>
-      <c r="E90" t="n">
-        <v>55537563</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1.49012</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="n">
-        <v>25.41036</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>12.48195606299567</v>
-      </c>
-      <c r="K90" t="n">
-        <v>6.865349333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.646746666666667</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
-      <c r="O90" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>78</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>SPX</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>SPX6900</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>1374055858</v>
-      </c>
-      <c r="E91" t="n">
-        <v>70378560</v>
-      </c>
-      <c r="F91" t="n">
-        <v>5.56877</v>
-      </c>
-      <c r="G91" t="n">
-        <v>99.08667</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15.61711</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>12.82480125529222</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.409169333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.470468888888889</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.2026648719995919</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="n">
-        <v>5.61</v>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>380</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DAKU</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Daku</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>133183233</v>
-      </c>
-      <c r="E92" t="n">
-        <v>146709</v>
-      </c>
-      <c r="F92" t="n">
-        <v>6.49285</v>
-      </c>
-      <c r="G92" t="n">
-        <v>23.14123</v>
-      </c>
-      <c r="H92" t="n">
-        <v>9.790850000000001</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.888189189530887</v>
-      </c>
-      <c r="K92" t="n">
-        <v>7.53238</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.175744444444445</v>
-      </c>
-      <c r="M92" t="n">
-        <v>15.37642464335378</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>290</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>AURA</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>aura</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>194568612</v>
-      </c>
-      <c r="E93" t="n">
-        <v>38263694</v>
-      </c>
-      <c r="F93" t="n">
-        <v>4.47119</v>
-      </c>
-      <c r="G93" t="n">
-        <v>14569.62439</v>
-      </c>
-      <c r="H93" t="n">
-        <v>16.40419</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.9426229825512</v>
-      </c>
-      <c r="K93" t="n">
-        <v>7.262825333333334</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.645375555555556</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>878</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>HOTMOM</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Hot Mom</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>33242513</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1049.8</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5.75613</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-68.76854</v>
-      </c>
-      <c r="H94" t="n">
-        <v>71.01690000000001</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.434150666666667</v>
-      </c>
-      <c r="L94" t="n">
-        <v>15.78153333333334</v>
-      </c>
-      <c r="M94" t="n">
-        <v>6.260171699752336</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>416</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>TIBBIR</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Ribbita by Virtuals</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>110312533</v>
-      </c>
-      <c r="E95" t="n">
-        <v>876112</v>
-      </c>
-      <c r="F95" t="n">
-        <v>3.95103</v>
-      </c>
-      <c r="G95" t="n">
-        <v>66.31666</v>
-      </c>
-      <c r="H95" t="n">
-        <v>11.57139</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.475198762846301</v>
-      </c>
-      <c r="K95" t="n">
-        <v>7.193470666666667</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.57142</v>
-      </c>
-      <c r="M95" t="n">
-        <v>6.750052831630535</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>873</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>AINTI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>AIntivirus</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>33728682</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1.1644</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.666666666666666</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.2587555555555556</v>
-      </c>
-      <c r="M96" t="n">
-        <v>20</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-      <c r="O96" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>816</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ARARA</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Araracoin</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>37486533</v>
-      </c>
-      <c r="E97" t="n">
-        <v>299969</v>
-      </c>
-      <c r="F97" t="n">
-        <v>41.59328</v>
-      </c>
-      <c r="G97" t="n">
-        <v>215.8054</v>
-      </c>
-      <c r="H97" t="n">
-        <v>4.17791</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>4.923587917681298</v>
-      </c>
-      <c r="K97" t="n">
-        <v>12.21243733333333</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.9284244444444444</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>740</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>LAMBO</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>LAMBO</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>45086416</v>
-      </c>
-      <c r="E98" t="n">
-        <v>3584035</v>
-      </c>
-      <c r="F98" t="n">
-        <v>7.46165</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="n">
-        <v>8.43904</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>8.514574140421431</v>
-      </c>
-      <c r="K98" t="n">
-        <v>7.661553333333333</v>
-      </c>
-      <c r="L98" t="n">
-        <v>1.875342222222222</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>339</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>REKT</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Rekt</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>155209442</v>
-      </c>
-      <c r="E99" t="n">
-        <v>672079</v>
-      </c>
-      <c r="F99" t="n">
-        <v>-0.39073</v>
-      </c>
-      <c r="G99" t="n">
-        <v>82.59177</v>
-      </c>
-      <c r="H99" t="n">
-        <v>10.70421</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.091401085018395</v>
-      </c>
-      <c r="K99" t="n">
-        <v>6.614569333333334</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.378713333333333</v>
-      </c>
-      <c r="M99" t="n">
-        <v>3.49831567147498</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>819</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>HOLD</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Everybody</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>37074800</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1008950</v>
-      </c>
-      <c r="F100" t="n">
-        <v>-9.59196</v>
-      </c>
-      <c r="G100" t="n">
-        <v>338.83449</v>
-      </c>
-      <c r="H100" t="n">
-        <v>18.23337</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.679565482229615</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5.387738666666667</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.05186</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-      <c r="O100" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Fraca</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>371</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>MGG</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>MimboGameGroup</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>139133711</v>
-      </c>
-      <c r="E101" t="n">
-        <v>9099.459999999999</v>
-      </c>
-      <c r="F101" t="n">
-        <v>-0.91689</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="n">
-        <v>8.538729999999999</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>6.544414666666666</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1.897495555555555</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
-      <c r="O101" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="P101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T85" t="inlineStr">
         <is>
           <t>Fraca</t>
         </is>
